--- a/results_8Byte_Mega.xlsx
+++ b/results_8Byte_Mega.xlsx
@@ -657,6 +657,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF595959"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -786,6 +791,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24385806043276911"/>
+                  <c:y val="0.29543314237925772"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$76:$D$93</c:f>
@@ -944,6 +1000,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14816870421718881"/>
+                  <c:y val="7.1045857873609689E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="0070C0"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$1:$D$25</c:f>
@@ -1144,6 +1251,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.4676651305811562E-2"/>
+                  <c:y val="0.17063131711052026"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$26:$D$50</c:f>
@@ -1344,6 +1502,61 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8697821322697774E-2"/>
+                  <c:y val="0.21954684462163571"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$51:$D$75</c:f>
@@ -1522,11 +1735,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="651282456"/>
-        <c:axId val="651286376"/>
+        <c:axId val="346514888"/>
+        <c:axId val="346515280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="651282456"/>
+        <c:axId val="346514888"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1648,12 +1861,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651286376"/>
+        <c:crossAx val="346515280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="651286376"/>
+        <c:axId val="346515280"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1774,7 +1987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651282456"/>
+        <c:crossAx val="346514888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1792,10 +2005,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.82216534230465488"/>
-          <c:y val="0.32355343843834011"/>
-          <c:w val="8.7914412712675458E-2"/>
-          <c:h val="0.12706735815440939"/>
+          <c:x val="0.10364694352423559"/>
+          <c:y val="0.12131086781557603"/>
+          <c:w val="0.14188265768734615"/>
+          <c:h val="0.21677172415644189"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2714,11 +2927,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="651287160"/>
-        <c:axId val="651289512"/>
+        <c:axId val="346516848"/>
+        <c:axId val="346511752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="651287160"/>
+        <c:axId val="346516848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2764,12 +2977,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651289512"/>
+        <c:crossAx val="346511752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="651289512"/>
+        <c:axId val="346511752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2829,7 +3042,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651287160"/>
+        <c:crossAx val="346516848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3003,6 +3216,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24164298620065178"/>
+                  <c:y val="0.22657880029147304"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$176:$D$199</c:f>
@@ -3197,6 +3461,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.4339388021648324E-2"/>
+                  <c:y val="-3.2947768321412656E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="0070C0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="0070C0"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$101:$D$125</c:f>
@@ -3397,6 +3712,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.4932922732830097E-2"/>
+                  <c:y val="6.6442685230383935E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$126:$D$150</c:f>
@@ -3597,6 +3963,61 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2537586219846526E-2"/>
+                  <c:y val="0.1598006381277812"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$151:$D$175</c:f>
@@ -3775,11 +4196,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="651280888"/>
-        <c:axId val="651285984"/>
+        <c:axId val="346518024"/>
+        <c:axId val="346518808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="651280888"/>
+        <c:axId val="346518024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3901,12 +4322,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651285984"/>
+        <c:crossAx val="346518808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="651285984"/>
+        <c:axId val="346518808"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4028,7 +4449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651280888"/>
+        <c:crossAx val="346518024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4046,10 +4467,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.82731094225304502"/>
-          <c:y val="0.25420166818770301"/>
-          <c:w val="0.10233675083142429"/>
-          <c:h val="0.12959639479027385"/>
+          <c:x val="0.10023092105537683"/>
+          <c:y val="0.13740023063154844"/>
+          <c:w val="0.14049255369310951"/>
+          <c:h val="0.23561616118739875"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4534,11 +4955,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="651287552"/>
-        <c:axId val="651282064"/>
+        <c:axId val="346512144"/>
+        <c:axId val="346511360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="651287552"/>
+        <c:axId val="346512144"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4598,12 +5019,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651282064"/>
+        <c:crossAx val="346511360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="651282064"/>
+        <c:axId val="346511360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4663,7 +5084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651287552"/>
+        <c:crossAx val="346512144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -23939,8 +24360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V41" activeCellId="1" sqref="Z85 V41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
